--- a/data/income_statement/3digits/total/692_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/692_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>692-Accounting, bookkeeping and auditing activities; tax consultancy</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>692-Accounting, bookkeeping and auditing activities; tax consultancy</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1293369.29545</v>
@@ -962,31 +868,36 @@
         <v>1648701.65116</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1637576.41501</v>
+        <v>1638746.01987</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1837377.13613</v>
+        <v>1844494.2486</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2083950.44697</v>
+        <v>2101225.79914</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1884867.54684</v>
+        <v>2317418.07271</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2472926.71552</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2984454.97277</v>
+        <v>2991021.30047</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3641628.024600001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3660638.96126</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4275199.956</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1193247.18676</v>
@@ -1001,37 +912,42 @@
         <v>1514514.69355</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1536770.57865</v>
+        <v>1537940.13362</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1739148.93117</v>
+        <v>1746233.72439</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1969172.95776</v>
+        <v>1986119.72225</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1794420.989</v>
+        <v>2186381.85415</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2332442.25407</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2827390.42749</v>
+        <v>2833452.93839</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3421273.1325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3440160.83521</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3990184.036</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>73157.86057999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>58866.61864</v>
+        <v>58866.61863999999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>102778.79141</v>
@@ -1040,31 +956,36 @@
         <v>109824.4643</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>80274.26487</v>
+        <v>80274.31475999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>81982.02181000002</v>
+        <v>81982.02180999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>95868.87201000001</v>
+        <v>95899.21643000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>67456.2053</v>
+        <v>107593.78726</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>110213.51505</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>116707.28709</v>
+        <v>117162.34305</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>163937.81298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>163950.01448</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>230397.812</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>26964.24811</v>
@@ -1082,28 +1003,33 @@
         <v>20531.57149</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>16246.18315</v>
+        <v>16278.5024</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18908.6172</v>
+        <v>19206.86046</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>22990.35254</v>
+        <v>23442.4313</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>30270.9464</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>40357.25819</v>
+        <v>40406.01903</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>56417.07912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>56528.11157</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>54618.108</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>11006.70377</v>
@@ -1112,7 +1038,7 @@
         <v>8132.0921</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>9960.976199999999</v>
+        <v>9960.976200000001</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>11250.66561</v>
@@ -1121,28 +1047,33 @@
         <v>11653.15312</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>17174.7934</v>
+        <v>17520.38956</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>24152.17314</v>
+        <v>24449.00445</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>22839.58626</v>
+        <v>31423.71736</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>33462.02002</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>46359.98908</v>
+        <v>46371.08229999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>56664.99675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>57759.49561</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>61261.372</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>8805.577070000001</v>
@@ -1157,31 +1088,36 @@
         <v>7906.86258</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8607.19378</v>
+        <v>8607.193780000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13763.00687</v>
+        <v>14108.60303</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>19458.8319</v>
+        <v>19755.15968</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>17214.86608</v>
+        <v>25798.99718</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>27717.83799</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>37807.79884999999</v>
+        <v>37818.89207</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>45291.73192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>46386.23078</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>49813.87</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2036.33245</v>
@@ -1199,7 +1135,7 @@
         <v>2726.13694</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2729.11444</v>
+        <v>2729.114439999999</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>3701.04715</v>
@@ -1211,16 +1147,21 @@
         <v>4479.88112</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6119.212840000001</v>
+        <v>6119.21284</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>7922.587239999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>8358.055</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>164.79425</v>
@@ -1238,10 +1179,10 @@
         <v>319.8224</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>682.6720900000001</v>
+        <v>682.6720899999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>992.29409</v>
+        <v>992.7976200000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>1389.1428</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3450.67759</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>3089.447</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1282362.59168</v>
@@ -1274,31 +1220,36 @@
         <v>1637450.98555</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1625923.26189</v>
+        <v>1627092.86675</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1820202.34273</v>
+        <v>1826973.85904</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2059798.27383</v>
+        <v>2076776.79469</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1862027.96058</v>
+        <v>2285994.35535</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2439464.6955</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2938094.98369</v>
+        <v>2944650.21817</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3584963.02785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3602879.46565</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4213938.584</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>786555.4117000001</v>
@@ -1310,34 +1261,39 @@
         <v>890888.98965</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>986438.93504</v>
+        <v>986438.9350400001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>999485.6174899999</v>
+        <v>1000289.61729</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1135467.69621</v>
+        <v>1136436.67004</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1232885.52199</v>
+        <v>1241049.12444</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1108774.67315</v>
+        <v>1418936.02885</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1526570.08164</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1867262.45528</v>
+        <v>1871434.24301</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2222552.53326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2232436.03102</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2583879.135</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>16558.68047</v>
@@ -1367,16 +1323,21 @@
         <v>1399.07167</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3727.41576</v>
+        <v>4948.28577</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>2596.16253</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>7539.067</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>60037.00118</v>
@@ -1388,37 +1349,42 @@
         <v>101901.57473</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>81979.23014999999</v>
+        <v>81979.23015</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>50748.61623</v>
+        <v>51306.93702</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>56123.08936</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>27305.63361</v>
+        <v>27362.50405</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>18730.21052</v>
+        <v>18730.20852</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>35927.85696</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7883.816599999999</v>
+        <v>7896.82506</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>25156.87215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>25273.11153</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>25725.066</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>708018.5109399999</v>
+        <v>708018.5109400001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>626508.85839</v>
@@ -1430,31 +1396,36 @@
         <v>892743.12014</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>940346.6575699999</v>
+        <v>940592.06556</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1077311.68074</v>
+        <v>1078280.65457</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1199818.40786</v>
+        <v>1207891.17771</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1083157.35884</v>
+        <v>1393276.49747</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1484927.63031</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1849266.69153</v>
+        <v>1852202.52079</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2186232.01987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2195969.27506</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2542707.447</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1941.21911</v>
@@ -1469,31 +1440,36 @@
         <v>2162.25277</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2582.79611</v>
+        <v>2583.06713</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>1452.11295</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4617.47891</v>
+        <v>4651.44107</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2947.34448</v>
+        <v>2989.56355</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>4315.5227</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>6384.53139</v>
+        <v>6386.611390000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>8567.478709999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8597.481900000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7907.555</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>495807.17998</v>
@@ -1502,37 +1478,42 @@
         <v>506791.15963</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>605984.4642800001</v>
+        <v>605984.46428</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>651012.05051</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>626437.6444</v>
+        <v>626803.2494600001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>684734.64652</v>
+        <v>690537.189</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>826912.75184</v>
+        <v>835727.6702500001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>753253.28743</v>
+        <v>867058.3265</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>912894.61386</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1070832.52841</v>
+        <v>1073215.97516</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1362410.49459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1370443.43463</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1630059.449</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>322505.83285</v>
@@ -1547,31 +1528,36 @@
         <v>441345.97732</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>425019.35745</v>
+        <v>425343.41983</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>459980.27397</v>
+        <v>463144.2714799999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>552214.7007099999</v>
+        <v>556736.0238099999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>464394.04305</v>
+        <v>604966.65055</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>654482.5430500001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>736768.48661</v>
+        <v>739193.4826400001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1021615.81853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1027596.23372</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1094258.22</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>626.9352</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>48235.34925</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>59491.279</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>10302.74886</v>
@@ -1625,37 +1616,42 @@
         <v>15026.44914</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10171.38918</v>
+        <v>10181.56174</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8279.146270000001</v>
+        <v>8309.573059999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>12877.15455</v>
+        <v>13874.68458</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11072.27271</v>
+        <v>13891.33758</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>17424.95658</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>13507.79977</v>
+        <v>13519.71444</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>49519.50796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>49595.02337</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>40274.062</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>311576.14879</v>
+        <v>311576.1487899999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>329096.0763200001</v>
+        <v>329096.0763199999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>406479.92611</v>
@@ -1664,31 +1660,36 @@
         <v>425856.9834</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>414706.81732</v>
+        <v>415020.70714</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>451520.13234</v>
+        <v>454653.7030600001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>538346.70716</v>
+        <v>541870.50023</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>453125.49641</v>
+        <v>590879.0390399999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>637026.71549</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>722834.24937</v>
+        <v>725247.33073</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>923860.96132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>929765.8611000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>994492.879</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>173301.34713</v>
@@ -1703,76 +1704,86 @@
         <v>209666.07319</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>201418.28695</v>
+        <v>201459.82963</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>224754.37255</v>
+        <v>227392.91752</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>274698.05113</v>
+        <v>278991.64644</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>288859.24438</v>
+        <v>262091.67595</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>258412.07081</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>334064.0417999999</v>
+        <v>334022.49252</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>340794.6760600001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>342847.20091</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>535801.2290000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>74590.72011000001</v>
+        <v>74590.72010999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>58531.06186</v>
+        <v>58531.06186000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>65973.54480000002</v>
+        <v>65973.5448</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>60450.90885</v>
+        <v>60450.90884999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>80550.23133</v>
+        <v>80569.81005000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>82904.26203</v>
+        <v>84027.09417</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>103339.14671</v>
+        <v>104779.6488</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>71564.45969999999</v>
+        <v>127849.84277</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>217282.04046</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>219314.4884</v>
+        <v>219406.26593</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>282528.4007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>282936.41661</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>234496.422</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>484.67253</v>
+        <v>484.6725300000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>836.70437</v>
+        <v>836.7043699999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>3148.19535</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>1747.96078</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1934.936</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1543.33378</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>565.9344300000001</v>
+        <v>565.93443</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>27.49129</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>2599.57658</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>26567.42964</v>
@@ -1859,31 +1880,36 @@
         <v>11596.97207</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8732.553240000001</v>
+        <v>8739.36715</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9691.047690000001</v>
+        <v>9693.310019999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>11083.73035</v>
+        <v>11332.4181</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10963.43514</v>
+        <v>11351.87994</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>13864.04223</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>19071.58432</v>
+        <v>19072.60032</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>27209.27359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27216.22253</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>29974.665</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>693.1792399999999</v>
@@ -1892,7 +1918,7 @@
         <v>614.04989</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>670.7493499999999</v>
+        <v>670.74935</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>414.65955</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>3851.26632</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1440.675</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>932.32372</v>
+        <v>932.3237200000001</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>1710.13459</v>
@@ -1943,7 +1974,7 @@
         <v>2392.34461</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2834.41763</v>
+        <v>2898.87042</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2023.03787</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>5279.04385</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4485.15</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1267.97161</v>
@@ -1982,7 +2018,7 @@
         <v>1901.3529</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1732.33554</v>
+        <v>1921.48572</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>2935.6462</v>
@@ -1994,13 +2030,18 @@
         <v>3085.77917</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5784.148300000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5784.15167</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5727.307</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>19581.64346</v>
@@ -2015,37 +2056,42 @@
         <v>18312.39811</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>39459.09325</v>
+        <v>39471.31803</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>35128.92445</v>
+        <v>35177.64562</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>33845.65694</v>
+        <v>34719.1704</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>35032.8694</v>
+        <v>41351.47557</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>35151.28984</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>107777.17376</v>
+        <v>107862.29651</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>124820.71938</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>124839.031</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>78074.30899999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>73.26803</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>71.59478000000001</v>
+        <v>71.59478</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>321.63116</v>
@@ -2057,7 +2103,7 @@
         <v>991.58889</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>98.31355000000001</v>
+        <v>1119.72179</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>36.71421</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>173.40522</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>76.721</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>22.61519</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>28.69936</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>23424.28291</v>
@@ -2132,31 +2188,36 @@
         <v>23003.92928</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>27283.7702</v>
+        <v>27284.31023</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>32251.28107</v>
+        <v>32301.72147</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>48511.11059</v>
+        <v>48575.8085</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>15312.34504</v>
+        <v>64890.67714</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>143977.85107</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>82903.98548</v>
+        <v>82909.62426</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>111034.30732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>111417.0593</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>112782.659</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>33121.96584</v>
@@ -2171,31 +2232,36 @@
         <v>28359.93138</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>47027.35119</v>
+        <v>47067.55184</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>57723.25842</v>
+        <v>58606.38837000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>65050.99709999999</v>
+        <v>66474.51924000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>68889.21700999999</v>
+        <v>79463.52622</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>81277.11388999998</v>
+        <v>81277.11389000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>130174.49787</v>
+        <v>130190.06083</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>149729.04668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>149896.67802</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>74757.42999999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>215.45848</v>
@@ -2216,7 +2282,7 @@
         <v>338.7709</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>684.99959</v>
+        <v>685.1620799999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>407.40603</v>
@@ -2228,13 +2294,18 @@
         <v>441.51763</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>650.9562099999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>652.27586</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>898.511</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>6219.83977</v>
@@ -2249,31 +2320,36 @@
         <v>5857.66824</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7473.989460000001</v>
+        <v>7484.96322</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7218.40734</v>
+        <v>7270.20734</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8219.815980000001</v>
+        <v>8533.650079999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12187.21865</v>
+        <v>12548.6358</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8322.090469999999</v>
+        <v>8322.090470000001</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>11144.79814</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>15894.85845</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>16022.63545</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14094.103</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>139.15159</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1528.65171</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1866.384</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>24033.75299</v>
@@ -2327,31 +2408,36 @@
         <v>18891.50285</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>33129.83323</v>
+        <v>33155.80814</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>41667.48122000001</v>
+        <v>41715.36246</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>50092.23544999999</v>
+        <v>51192.85383</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>50974.08232</v>
+        <v>61167.27792999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>44501.99561</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>95031.75567</v>
+        <v>95036.63484999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>121298.20434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>121303.48297</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>45098.049</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>88.02014</v>
@@ -2369,7 +2455,7 @@
         <v>1180.99606</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>63.35973000000001</v>
+        <v>846.8084399999999</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>33.88585</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>154.13637</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>75.563</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>54.07902</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2371.66385</v>
+        <v>2371.663849999999</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>3506.50654</v>
@@ -2444,31 +2540,36 @@
         <v>2733.05844</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4570.99009</v>
+        <v>4574.24207</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>5553.41862</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5993.89867</v>
+        <v>6002.80584</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5080.71902</v>
+        <v>5100.415470000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>27882.97243</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>22527.97595</v>
+        <v>22538.65973</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10202.2396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10235.49566</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>12724.82</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>16544.0356</v>
@@ -2483,31 +2584,36 @@
         <v>19450.9885</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17007.07796</v>
+        <v>17029.524</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16850.79036</v>
+        <v>16881.0868</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>19600.94399</v>
+        <v>19894.66376</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>21820.84014</v>
+        <v>25119.27403</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>28497.41118</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>39262.01809</v>
+        <v>39322.32899</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>47395.39438000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>47516.0751</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>45728.671</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>16131.20489</v>
@@ -2522,31 +2628,36 @@
         <v>18429.02206</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>15413.82026</v>
+        <v>15436.2663</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>15643.23468</v>
+        <v>15673.53112</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>18183.5867</v>
+        <v>18477.30647</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>21227.29934</v>
+        <v>24525.73323</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>26710.73215</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>38929.43882</v>
+        <v>38989.74972</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>45700.50169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>45820.81690999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>44206.102</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>412.83071</v>
@@ -2570,7 +2681,7 @@
         <v>1417.35729</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>593.5408</v>
+        <v>593.5407999999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1786.67903</v>
@@ -2579,13 +2690,18 @@
         <v>332.57927</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1694.89269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1695.25819</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1522.569</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>198226.0658</v>
@@ -2600,31 +2716,36 @@
         <v>222306.06216</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>217934.08913</v>
+        <v>217932.56384</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>233084.5858</v>
+        <v>235932.53652</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>293385.25675</v>
+        <v>297402.1122399999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>269713.64693</v>
+        <v>285358.71847</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>365919.5862</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>383942.01424</v>
+        <v>383916.36863</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>426198.6357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>428370.8644</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>649811.55</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>29151.80387</v>
@@ -2639,31 +2760,36 @@
         <v>38357.0402</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>34802.4549</v>
+        <v>34823.46876999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>35958.73438</v>
+        <v>35981.89</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>36354.72268000001</v>
+        <v>36503.39977</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>22418.26844</v>
+        <v>25214.88419</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>32484.71188</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>33113.79384999999</v>
+        <v>33153.29368</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>46165.44998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>46620.88404</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>55404.68</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>212.68857</v>
@@ -2684,7 +2810,7 @@
         <v>619.4600899999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>627.99017</v>
+        <v>628.10792</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>127.8246</v>
@@ -2693,16 +2819,21 @@
         <v>619.83455</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>600.17611</v>
+        <v>635.86622</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>283.40976</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>602.2569999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>28939.1153</v>
@@ -2714,34 +2845,39 @@
         <v>26803.3246</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>38040.58405999999</v>
+        <v>38040.58406</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>34362.85816</v>
+        <v>34383.87203</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>35339.27429000001</v>
+        <v>35362.42991000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>35726.73251000001</v>
+        <v>35875.29184999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>22290.44384</v>
+        <v>25087.05959</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>31864.87733</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>32513.61774</v>
+        <v>32517.42746</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>45882.04022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>46337.47428</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>54802.423</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>14018.26163</v>
@@ -2756,31 +2892,36 @@
         <v>14977.24631</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12312.39975</v>
+        <v>12321.27732</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>79506.98506000001</v>
+        <v>84654.83905</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>17051.31525</v>
+        <v>17175.49195</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>174530.39087</v>
+        <v>175319.49583</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>28690.60383</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>173525.62343</v>
+        <v>173605.74854</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>34909.38369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>35231.51289</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>41395.294</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5.70467</v>
@@ -2813,19 +2954,24 @@
         <v>71.93656999999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1.68619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>12.70339</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>20.882</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2197.04922</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>719.3829900000001</v>
+        <v>719.3829899999999</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>1239.03907</v>
@@ -2837,13 +2983,13 @@
         <v>902.57079</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>490.17445</v>
+        <v>490.1768299999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>728.56314</v>
+        <v>734.98725</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1264.27055</v>
+        <v>1134.53683</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>408.14252</v>
@@ -2852,13 +2998,18 @@
         <v>6503.65454</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>717.83584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>718.09848</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>351.563</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11815.50774</v>
@@ -2873,31 +3024,36 @@
         <v>14294.38734</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11304.71612</v>
+        <v>11313.59369</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>78833.99610999999</v>
+        <v>83981.84772000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16285.58997</v>
+        <v>16403.34256</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>173207.96153</v>
+        <v>174126.80021</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>28019.18299</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>166950.03232</v>
+        <v>167030.15743</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>34189.86166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>34500.71102</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>41022.849</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>213359.60804</v>
@@ -2912,31 +3068,36 @@
         <v>245685.85605</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>240424.14428</v>
+        <v>240434.75529</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>189536.33512</v>
+        <v>187259.58747</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>312688.66418</v>
+        <v>316730.02006</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>117601.5245</v>
+        <v>135254.10683</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>369713.69425</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>243530.18466</v>
+        <v>243463.91377</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>437454.70199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>439760.23555</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>663820.936</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>43218.58862</v>
@@ -2954,28 +3115,33 @@
         <v>49907.56006</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>54537.09331999999</v>
+        <v>54653.23661</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>64821.42365</v>
+        <v>65588.16993999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>61634.63195999999</v>
+        <v>65333.17061</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>76031.65389</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>88543.16687</v>
+        <v>88638.88416</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>108592.74027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>109125.51372</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>146004.734</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>170141.01942</v>
@@ -2984,34 +3150,37 @@
         <v>150556.34256</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-63652.91654</v>
+        <v>-63652.91654000001</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>196973.57366</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>190516.58422</v>
+        <v>190527.19523</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>134999.2418</v>
+        <v>132606.35086</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>247867.24053</v>
+        <v>251141.85012</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>55966.89254000001</v>
+        <v>69920.93622</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>293682.04036</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>154987.01779</v>
+        <v>154825.02961</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>328861.96172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>330634.7218300001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>517816.202</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2818</v>
@@ -3044,28 +3216,31 @@
         <v>2853</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2501</v>
+        <v>2507</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2442</v>
+        <v>2456</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2476</v>
+        <v>2503</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2561</v>
+        <v>2585</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2692</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2714</v>
+        <v>2777</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2948</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>